--- a/classfiers/sota/corelation/corelation-metrics/correlations-nano.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-nano.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4476041271592156</v>
+        <v>-0.4515578132576832</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3159478863689382</v>
+        <v>-0.3204189871360006</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3201435289587766</v>
+        <v>-0.3238867171289735</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2787845255877925</v>
+        <v>-0.2762439644161469</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3363813353247491</v>
+        <v>-0.3425003091580003</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3407924460513653</v>
+        <v>-0.3491627931827852</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1480433081806271</v>
+        <v>-0.1274952296982005</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2513908149980848</v>
+        <v>-0.2598342774939717</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.04841393319356762</v>
+        <v>-0.04886952577606983</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.4179641641410614</v>
+        <v>-0.422350169889862</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1226993878309359</v>
+        <v>-0.1236039559126806</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2914078731888124</v>
+        <v>-0.3024123443954687</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3447361355849478</v>
+        <v>-0.3506614541755267</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1198694639223653</v>
+        <v>-0.1251743858255756</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09100876312303796</v>
+        <v>-0.09251126067013299</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1190125230990082</v>
+        <v>-0.1171557114177803</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1060442156968814</v>
+        <v>-0.105176689414329</v>
       </c>
     </row>
   </sheetData>
